--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arsla\OneDrive\Рабочий стол\Учёба\MAPpool\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41CCA6CA-2BAE-4F3C-A463-CF15F69626D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8E2B0E6-668D-4BEF-B50B-36A09A0BCF14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6145,8 +6145,8 @@
   <dimension ref="A1:T344"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <pane ySplit="1" topLeftCell="A92" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
